--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="161">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -520,6 +520,21 @@
   </si>
   <si>
     <t>21/01/2020 - 28/01/2020</t>
+  </si>
+  <si>
+    <t>27/01/2020 - 31/01/2020</t>
+  </si>
+  <si>
+    <t>29/01/2020 - 31/01/2020</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки                 «Калина 0,5»                                   тип XХI-В-28-2-500-28</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки                «Калина 0,35»                                 тип XХI-В-28-2-350-1 Часть 2</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки                «Калина 0,35»                                тип XХI-В-28-2-350-1 Часть 1</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +698,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -803,24 +812,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,30 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1197,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1275,20 +1242,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1351,37 +1318,37 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="48" t="s">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>58</v>
+      <c r="A18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="28">
+        <v>521640</v>
+      </c>
+      <c r="E18" s="28">
+        <v>555696</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -1412,15 +1379,15 @@
         <v>148</v>
       </c>
       <c r="D20" s="28">
-        <v>367602</v>
+        <v>532824</v>
       </c>
       <c r="E20" s="28">
-        <v>495979</v>
+        <v>549478</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -1437,13 +1404,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>155</v>
       </c>
       <c r="D22" s="25">
@@ -1454,44 +1421,44 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="48" t="s">
+      <c r="A23" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="48" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1505,60 +1472,60 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="48" t="s">
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="48">
-        <v>1278900</v>
-      </c>
-      <c r="E28" s="48">
-        <v>1381640</v>
+      <c r="C28" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="28">
+        <v>695016</v>
+      </c>
+      <c r="E28" s="28">
+        <v>746441</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="46" t="s">
+      <c r="A29" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="48" t="s">
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1580,70 +1547,70 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="46" t="s">
+      <c r="A31" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="48" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="28">
         <v>1038990</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="28">
         <v>1141013</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="48" t="s">
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="48" t="s">
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1665,162 +1632,168 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="48">
-        <v>2128893</v>
-      </c>
-      <c r="E36" s="48">
-        <v>2238094</v>
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="48" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="46" t="s">
+      <c r="A38" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="48" t="s">
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="64">
-        <v>339660</v>
-      </c>
-      <c r="E39" s="64">
-        <v>342403</v>
+      <c r="C39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="48" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="48" t="s">
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="48" t="s">
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="48" t="s">
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="48" t="s">
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1842,87 +1815,87 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="48" t="s">
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="48" t="s">
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="48">
-        <v>1587294</v>
-      </c>
-      <c r="E49" s="48">
-        <v>1715013</v>
+      <c r="C49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="48">
-        <v>829632</v>
-      </c>
-      <c r="E50" s="48">
-        <v>880380</v>
+      <c r="C50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="48" t="s">
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1944,35 +1917,35 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="48" t="s">
+      <c r="C53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
-        <v>18078459</v>
+        <v>13295958</v>
       </c>
       <c r="E54" s="28">
         <f>SUM(E17:E53)</f>
-        <v>19316732</v>
+        <v>14114838</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -2021,7 +1994,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
@@ -2029,9 +2002,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2073,17 +2043,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2133,20 +2103,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2345,16 +2315,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="54">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -2362,12 +2332,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -2713,11 +2683,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -2879,20 +2849,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3091,10 +3061,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -3108,8 +3078,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -3461,11 +3431,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -3620,20 +3590,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3833,16 +3803,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="54">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -3850,12 +3820,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -4235,11 +4205,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -4395,20 +4365,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4608,10 +4578,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4625,8 +4595,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -4842,10 +4812,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -4859,8 +4829,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -5077,11 +5047,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -5241,20 +5211,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5454,10 +5424,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5471,8 +5441,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -5688,28 +5658,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="58">
         <v>339660</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="58">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
@@ -5916,11 +5886,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="6" r:id="rId1"/>
-    <sheet name="Август" sheetId="1" r:id="rId2"/>
-    <sheet name="Сентябрь" sheetId="2" r:id="rId3"/>
-    <sheet name="Октябрь" sheetId="3" r:id="rId4"/>
-    <sheet name="Ноябрь" sheetId="4" r:id="rId5"/>
-    <sheet name="Декабрь" sheetId="5" r:id="rId6"/>
+    <sheet name="Февраль" sheetId="7" r:id="rId2"/>
+    <sheet name="Август" sheetId="1" r:id="rId3"/>
+    <sheet name="Сентябрь" sheetId="2" r:id="rId4"/>
+    <sheet name="Октябрь" sheetId="3" r:id="rId5"/>
+    <sheet name="Ноябрь" sheetId="4" r:id="rId6"/>
+    <sheet name="Декабрь" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Декабрь!$A$1:$E$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Ноябрь!$A$1:$E$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Октябрь!$A$1:$E$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Сентябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Ноябрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Октябрь!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Сентябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$E$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="164">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -535,6 +537,15 @@
   </si>
   <si>
     <t>Формокомплект бутылки                «Калина 0,35»                                тип XХI-В-28-2-350-1 Часть 1</t>
+  </si>
+  <si>
+    <t>01/02/2020 - 06/02/2020</t>
+  </si>
+  <si>
+    <t>01/02/2020 - 04/02/2020</t>
+  </si>
+  <si>
+    <t>05/02/2020 - 09/02/2020</t>
   </si>
 </sst>
 </file>
@@ -622,7 +633,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +715,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -812,6 +829,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,6 +875,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1242,20 +1307,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1455,10 +1520,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1472,8 +1537,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
@@ -1683,10 +1748,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1700,8 +1765,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -1934,11 +1999,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2018,6 +2083,862 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43890</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1102248</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1125179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="64">
+        <v>216832</v>
+      </c>
+      <c r="E19" s="64">
+        <v>223367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="64">
+        <v>532824</v>
+      </c>
+      <c r="E20" s="64">
+        <v>549478</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1533400</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1685448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="65">
+        <v>1633513</v>
+      </c>
+      <c r="E22" s="66">
+        <v>1685369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="70">
+        <v>3991275</v>
+      </c>
+      <c r="E25" s="71">
+        <v>4144291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="71"/>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="28">
+        <v>585648</v>
+      </c>
+      <c r="E28" s="28">
+        <v>611516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="64">
+        <v>718200</v>
+      </c>
+      <c r="E30" s="64">
+        <v>759246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="64">
+        <v>1038990</v>
+      </c>
+      <c r="E32" s="64">
+        <v>1141013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="64">
+        <v>893760</v>
+      </c>
+      <c r="E35" s="64">
+        <v>941633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="64">
+        <v>625152</v>
+      </c>
+      <c r="E46" s="64">
+        <v>740794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="28">
+        <v>624750</v>
+      </c>
+      <c r="E48" s="28">
+        <v>730901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="64">
+        <v>895356</v>
+      </c>
+      <c r="E52" s="64">
+        <v>942062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="28">
+        <f>SUM(D17:D53)</f>
+        <v>14391948</v>
+      </c>
+      <c r="E54" s="28">
+        <f>SUM(E17:E53)</f>
+        <v>15280297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2043,17 +2964,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2103,20 +3024,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2315,16 +3236,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="55">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -2332,12 +3253,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -2683,11 +3604,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -2764,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2849,20 +3770,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3061,10 +3982,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -3078,8 +3999,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -3431,11 +4352,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -3508,7 +4429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J56"/>
   <sheetViews>
@@ -3590,20 +4511,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3803,16 +4724,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="55">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -3820,12 +4741,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -4205,11 +5126,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -4283,7 +5204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -4365,20 +5286,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4578,10 +5499,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4595,8 +5516,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -4812,10 +5733,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -4829,8 +5750,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -5047,11 +5968,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -5129,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -5211,20 +6132,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5424,10 +6345,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5441,8 +6362,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -5658,28 +6579,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="59">
         <v>339660</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="59">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
@@ -5886,11 +6807,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="168">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>05/02/2020 - 09/02/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020 - 12/02/2020</t>
+  </si>
+  <si>
+    <t>03/02/2020 - 17/02/2020</t>
+  </si>
+  <si>
+    <t>12/02/2020 - 18/02/2020</t>
+  </si>
+  <si>
+    <t>13/02/2020 - 20/02/2020</t>
   </si>
 </sst>
 </file>
@@ -715,7 +727,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -832,6 +844,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,6 +893,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,51 +929,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1307,20 +1316,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1520,10 +1529,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1537,8 +1546,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
@@ -1748,10 +1757,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1765,8 +1774,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -1999,11 +2008,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2085,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2163,20 +2172,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2239,19 +2248,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="64" t="s">
+      <c r="C17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2273,146 +2282,146 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="49">
         <v>216832</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="49">
         <v>223367</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="49">
         <v>532824</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="49">
         <v>549478</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="49">
         <v>1533400</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="49">
         <v>1685448</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="50">
         <v>1633513</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="51">
         <v>1685369</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="C23" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="64" t="s">
+      <c r="C24" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="70">
-        <v>3991275</v>
-      </c>
-      <c r="E25" s="71">
-        <v>4144291</v>
+      <c r="C25" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="32">
+        <v>2788425</v>
+      </c>
+      <c r="E25" s="31">
+        <v>2939530</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="71"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="64" t="s">
+      <c r="C27" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2434,321 +2443,321 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>58</v>
+      <c r="C29" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1027530</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1074025</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="64">
-        <v>718200</v>
-      </c>
-      <c r="E30" s="64">
-        <v>759246</v>
+      <c r="C30" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="28">
+        <v>966150</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1017198</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="64" t="s">
+      <c r="C31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="49">
         <v>1038990</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="49">
         <v>1141013</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="62" t="s">
+      <c r="A33" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="64" t="s">
+      <c r="C33" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="62" t="s">
+      <c r="A34" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="64" t="s">
+      <c r="C34" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="62" t="s">
+      <c r="A35" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="49">
         <v>893760</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="49">
         <v>941633</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="62" t="s">
+      <c r="A36" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="64" t="s">
+      <c r="C36" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="64" t="s">
+      <c r="C37" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="62" t="s">
+      <c r="A38" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="64" t="s">
+      <c r="C38" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="64" t="s">
+      <c r="C39" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="64" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="64" t="s">
+      <c r="C41" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="62" t="s">
+      <c r="A42" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="64" t="s">
+      <c r="C42" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="64" t="s">
-        <v>58</v>
+      <c r="C43" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="28">
+        <v>419904</v>
+      </c>
+      <c r="E43" s="28">
+        <v>442056</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="64" t="s">
+      <c r="C44" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="64" t="s">
+      <c r="C45" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="62" t="s">
+      <c r="A46" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="49">
         <v>625152</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="49">
         <v>740794</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="64" t="s">
+      <c r="C47" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2770,103 +2779,103 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="62" t="s">
+      <c r="A49" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="64" t="s">
+      <c r="C49" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="62" t="s">
+      <c r="A50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="64" t="s">
+      <c r="C50" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="62" t="s">
+      <c r="A51" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="64" t="s">
+      <c r="C51" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="62" t="s">
+      <c r="A52" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="49">
         <v>895356</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="49">
         <v>942062</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="62" t="s">
+      <c r="A53" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="64" t="s">
+      <c r="C53" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
-        <v>14391948</v>
+        <v>14884482</v>
       </c>
       <c r="E54" s="28">
         <f>SUM(E17:E53)</f>
-        <v>15280297</v>
+        <v>15849569</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -2964,17 +2973,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -3024,20 +3033,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3236,16 +3245,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="69">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -3253,12 +3262,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -3604,11 +3613,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -3770,20 +3779,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3982,10 +3991,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -3999,8 +4008,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -4352,11 +4361,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -4511,20 +4520,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4724,16 +4733,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="69">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -4741,12 +4750,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -5126,11 +5135,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -5286,20 +5295,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5499,10 +5508,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5516,8 +5525,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -5733,10 +5742,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -5750,8 +5759,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -5968,11 +5977,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -6132,20 +6141,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6345,10 +6354,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -6362,8 +6371,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -6579,28 +6588,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="73">
         <v>339660</v>
       </c>
-      <c r="E39" s="59">
+      <c r="E39" s="73">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
@@ -6807,11 +6816,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -9,23 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="6" r:id="rId1"/>
     <sheet name="Февраль" sheetId="7" r:id="rId2"/>
-    <sheet name="Август" sheetId="1" r:id="rId3"/>
-    <sheet name="Сентябрь" sheetId="2" r:id="rId4"/>
-    <sheet name="Октябрь" sheetId="3" r:id="rId5"/>
-    <sheet name="Ноябрь" sheetId="4" r:id="rId6"/>
-    <sheet name="Декабрь" sheetId="5" r:id="rId7"/>
+    <sheet name="Март" sheetId="8" r:id="rId3"/>
+    <sheet name="Апрель" sheetId="9" r:id="rId4"/>
+    <sheet name="Август" sheetId="1" r:id="rId5"/>
+    <sheet name="Сентябрь" sheetId="2" r:id="rId6"/>
+    <sheet name="Октябрь" sheetId="3" r:id="rId7"/>
+    <sheet name="Ноябрь" sheetId="4" r:id="rId8"/>
+    <sheet name="Декабрь" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Декабрь!$A$1:$E$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Ноябрь!$A$1:$E$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Октябрь!$A$1:$E$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Сентябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$E$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$E$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Ноябрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Октябрь!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Сентябрь!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$E$61</definedName>
   </definedNames>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="184">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -558,6 +562,54 @@
   </si>
   <si>
     <t>13/02/2020 - 20/02/2020</t>
+  </si>
+  <si>
+    <t>27/02/2020 - 29/02/2020</t>
+  </si>
+  <si>
+    <t>24/02/2020 - 29/02/2020</t>
+  </si>
+  <si>
+    <t>01/03/2020 - 05/03/2020</t>
+  </si>
+  <si>
+    <t>04/03/2020 - 09/03/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020 - 15/03/2020</t>
+  </si>
+  <si>
+    <t>16/03/2020 - 23/03/2020</t>
+  </si>
+  <si>
+    <t>31/03/2020 - 31/03/2020</t>
+  </si>
+  <si>
+    <t>12/03/2020 - 26/03/2020</t>
+  </si>
+  <si>
+    <t>27/03/2020 - 29/03/2020</t>
+  </si>
+  <si>
+    <t>23/03/2020 - 30/03/2020</t>
+  </si>
+  <si>
+    <t>28/03/2020 - 31/03/2020</t>
+  </si>
+  <si>
+    <t>30/03/2020 - 31/03/2020</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.5 л.     Батькова 0.5 л.                             тип ХХI-В-30-4б-500-14</t>
+  </si>
+  <si>
+    <t>24/03/2020 - 27/03/2020</t>
+  </si>
+  <si>
+    <t>01/04/2020 - 02/04/2020</t>
+  </si>
+  <si>
+    <t>01/04/2020 - 07/04/2020</t>
   </si>
 </sst>
 </file>
@@ -727,7 +779,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -841,31 +893,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,29 +929,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,6 +951,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,44 +1303,44 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43861</v>
       </c>
@@ -1289,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1301,7 +1362,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1315,21 +1376,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1338,7 +1399,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1350,14 +1411,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1391,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1486,7 @@
         <v>555696</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1503,7 @@
         <v>223367</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1521,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1538,7 @@
         <v>1685448</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1555,7 @@
         <v>1685369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>10</v>
       </c>
@@ -1528,11 +1589,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1545,14 +1606,14 @@
         <v>4144291</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1647,7 @@
         <v>746441</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1681,7 @@
         <v>759246</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1715,7 @@
         <v>1141013</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1766,7 @@
         <v>941633</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
         <v>10</v>
       </c>
@@ -1756,11 +1817,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1773,9 +1834,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="62"/>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -1786,7 +1847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="42" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="42" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="42" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
         <v>10</v>
       </c>
@@ -1888,7 +1949,7 @@
         <v>740794</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="42" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +1966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
         <v>10</v>
       </c>
@@ -1922,7 +1983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +2000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +2034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2051,7 @@
         <v>942062</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
         <v>10</v>
       </c>
@@ -2007,12 +2068,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2022,14 +2083,14 @@
         <v>14114838</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>12</v>
       </c>
@@ -2037,15 +2098,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>42</v>
       </c>
@@ -2056,10 +2117,10 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>14</v>
       </c>
@@ -2094,48 +2155,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43890</v>
       </c>
@@ -2145,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2157,7 +2218,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2171,21 +2232,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2194,7 +2255,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2206,14 +2267,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -2247,24 +2308,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>10</v>
       </c>
@@ -2281,117 +2342,117 @@
         <v>1125179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="47" t="s">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="49">
-        <v>216832</v>
-      </c>
-      <c r="E19" s="49">
-        <v>223367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="47" t="s">
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="49">
-        <v>532824</v>
-      </c>
-      <c r="E20" s="49">
-        <v>549478</v>
+      <c r="C20" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="28">
+        <v>495276</v>
+      </c>
+      <c r="E20" s="28">
+        <v>529736</v>
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="49">
-        <v>1533400</v>
-      </c>
-      <c r="E21" s="49">
-        <v>1685448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="47" t="s">
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="50">
-        <v>1633513</v>
-      </c>
-      <c r="E22" s="51">
-        <v>1685369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="47" t="s">
+      <c r="C22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="47" t="s">
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D25" s="32">
@@ -2401,31 +2462,37 @@
         <v>2939530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="47" t="s">
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="45">
+        <v>1075275</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1168474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>10</v>
       </c>
@@ -2442,8 +2509,8 @@
         <v>611516</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2459,8 +2526,8 @@
         <v>1074025</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -2476,208 +2543,208 @@
         <v>1017198</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="47" t="s">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="47" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="49">
-        <v>1038990</v>
-      </c>
-      <c r="E32" s="49">
-        <v>1141013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="47" t="s">
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="47" t="s">
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="47" t="s">
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="49">
-        <v>893760</v>
-      </c>
-      <c r="E35" s="49">
-        <v>941633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="47" t="s">
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="47" t="s">
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="47" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="65" t="s">
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="47" t="s">
+      <c r="C39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="47" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -2693,75 +2760,75 @@
         <v>442056</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="47" t="s">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="47" t="s">
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="47" t="s">
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="49">
-        <v>625152</v>
-      </c>
-      <c r="E46" s="49">
-        <v>740794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="47" t="s">
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
         <v>10</v>
       </c>
@@ -2778,114 +2845,114 @@
         <v>730901</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="47" t="s">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="47" t="s">
+      <c r="C49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="47" t="s">
+      <c r="C50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="47" t="s">
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="49">
-        <v>895356</v>
-      </c>
-      <c r="E52" s="49">
-        <v>942062</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="47" t="s">
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="C53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
-        <v>14884482</v>
+        <v>9085206</v>
       </c>
       <c r="E54" s="28">
         <f>SUM(E17:E53)</f>
-        <v>15849569</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>9638615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>12</v>
       </c>
@@ -2893,15 +2960,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>42</v>
       </c>
@@ -2912,10 +2979,10 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>14</v>
       </c>
@@ -2948,65 +3015,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J54"/>
+  <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
-        <v>39</v>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="68"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>43708</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3018,7 +3080,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -3032,21 +3094,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3055,7 +3117,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3067,14 +3129,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -3091,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -3108,7 +3170,1768 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="28">
+        <v>899364</v>
+      </c>
+      <c r="E20" s="28">
+        <v>920724</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="28">
+        <v>2077060</v>
+      </c>
+      <c r="E21" s="28">
+        <v>2254357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="28">
+        <v>2064615</v>
+      </c>
+      <c r="E22" s="28">
+        <v>2135526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="57">
+        <v>4421385</v>
+      </c>
+      <c r="E25" s="31">
+        <v>4362725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="31">
+        <v>184363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="28">
+        <v>2167956</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2291281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1186902</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1234411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="28">
+        <v>277438</v>
+      </c>
+      <c r="E35" s="28">
+        <v>304900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="28">
+        <v>937062</v>
+      </c>
+      <c r="E39" s="28">
+        <v>1009377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="28">
+        <v>392460</v>
+      </c>
+      <c r="E41" s="28">
+        <v>441439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="28">
+        <v>757400</v>
+      </c>
+      <c r="E49" s="28">
+        <v>865973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="28">
+        <v>618648</v>
+      </c>
+      <c r="E53" s="28">
+        <v>667526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="28">
+        <f>SUM(D17:D54)</f>
+        <v>15800290</v>
+      </c>
+      <c r="E55" s="28">
+        <f>SUM(E17:E54)</f>
+        <v>16672602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43951</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="68">
+        <v>899364</v>
+      </c>
+      <c r="E20" s="68">
+        <v>920724</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="68">
+        <v>2077060</v>
+      </c>
+      <c r="E21" s="68">
+        <v>2254357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="68">
+        <v>2064615</v>
+      </c>
+      <c r="E22" s="68">
+        <v>2135526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="71">
+        <v>4421385</v>
+      </c>
+      <c r="E25" s="72">
+        <v>4362725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="72">
+        <v>184363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="68">
+        <v>2167956</v>
+      </c>
+      <c r="E28" s="68">
+        <v>2291281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="68">
+        <v>1186902</v>
+      </c>
+      <c r="E29" s="68">
+        <v>1234411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="28">
+        <v>316540</v>
+      </c>
+      <c r="E35" s="28">
+        <v>322237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="68">
+        <v>937062</v>
+      </c>
+      <c r="E39" s="68">
+        <v>1009377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="68">
+        <v>392460</v>
+      </c>
+      <c r="E41" s="68">
+        <v>441439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1514800</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1541221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="68">
+        <v>618648</v>
+      </c>
+      <c r="E53" s="68">
+        <v>667526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="28">
+        <f>SUM(D17:D54)</f>
+        <v>16596792</v>
+      </c>
+      <c r="E55" s="28">
+        <f>SUM(E17:E54)</f>
+        <v>17365187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J54"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C4" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43708</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +4948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +4965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +4982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +4999,7 @@
         <v>344820</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +5016,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -3210,7 +5033,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +5050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -3244,35 +5067,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="57">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
         <v>3305938</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>10</v>
       </c>
@@ -3289,7 +5112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
@@ -3306,7 +5129,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -3323,7 +5146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +5163,7 @@
         <v>481049</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +5180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +5197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +5214,7 @@
         <v>678476</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +5231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>10</v>
       </c>
@@ -3425,7 +5248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +5265,7 @@
         <v>904320</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>10</v>
       </c>
@@ -3459,7 +5282,7 @@
         <v>1381590</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
@@ -3476,7 +5299,7 @@
         <v>848880</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +5316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>10</v>
       </c>
@@ -3510,7 +5333,7 @@
         <v>437340</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>10</v>
       </c>
@@ -3527,7 +5350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>10</v>
       </c>
@@ -3544,7 +5367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +5384,7 @@
         <v>978661</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>10</v>
       </c>
@@ -3578,7 +5401,7 @@
         <v>991587</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +5418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>10</v>
       </c>
@@ -3612,12 +5435,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -3627,14 +5450,14 @@
         <v>14616305</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>12</v>
       </c>
@@ -3642,15 +5465,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>42</v>
       </c>
@@ -3661,10 +5484,10 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +5509,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -3694,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3705,44 +5528,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43738</v>
       </c>
@@ -3752,7 +5575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3764,7 +5587,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -3778,21 +5601,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3801,7 +5624,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3813,14 +5636,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -3837,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -3854,7 +5677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
@@ -3871,7 +5694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +5711,7 @@
         <v>1243584</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +5728,7 @@
         <v>1312507</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +5745,7 @@
         <v>1447623</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>10</v>
       </c>
@@ -3939,7 +5762,7 @@
         <v>1647216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +5779,7 @@
         <v>1630498</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>10</v>
       </c>
@@ -3973,7 +5796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>10</v>
       </c>
@@ -3990,11 +5813,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4007,9 +5830,9 @@
         <v>1974470</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -4020,7 +5843,7 @@
         <v>2733394</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>10</v>
       </c>
@@ -4037,7 +5860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>10</v>
       </c>
@@ -4054,7 +5877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>10</v>
       </c>
@@ -4071,7 +5894,7 @@
         <v>825840</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +5911,7 @@
         <v>496706</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>10</v>
       </c>
@@ -4105,7 +5928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>10</v>
       </c>
@@ -4122,7 +5945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +5962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +5979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>10</v>
       </c>
@@ -4173,7 +5996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>10</v>
       </c>
@@ -4190,7 +6013,7 @@
         <v>1125850</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +6030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>10</v>
       </c>
@@ -4224,7 +6047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
@@ -4241,7 +6064,7 @@
         <v>1010437</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
@@ -4258,7 +6081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +6098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>10</v>
       </c>
@@ -4292,7 +6115,7 @@
         <v>448450</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>10</v>
       </c>
@@ -4309,7 +6132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +6149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>10</v>
       </c>
@@ -4343,7 +6166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>10</v>
       </c>
@@ -4360,12 +6183,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -4375,14 +6198,14 @@
         <v>15896575</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>12</v>
       </c>
@@ -4390,15 +6213,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>42</v>
       </c>
@@ -4409,10 +6232,10 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>14</v>
       </c>
@@ -4430,7 +6253,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -4438,7 +6261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J56"/>
   <sheetViews>
@@ -4446,44 +6269,44 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43769</v>
       </c>
@@ -4493,7 +6316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4505,7 +6328,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -4519,21 +6342,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4542,7 +6365,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4554,14 +6377,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +6401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -4595,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
@@ -4612,7 +6435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +6452,7 @@
         <v>721644</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
@@ -4646,7 +6469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>10</v>
       </c>
@@ -4664,7 +6487,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>10</v>
       </c>
@@ -4681,7 +6504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>10</v>
       </c>
@@ -4698,7 +6521,7 @@
         <v>2047806</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>10</v>
       </c>
@@ -4715,7 +6538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>10</v>
       </c>
@@ -4732,35 +6555,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="57">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
         <v>2962109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>10</v>
       </c>
@@ -4777,7 +6600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>10</v>
       </c>
@@ -4794,7 +6617,7 @@
         <v>597582</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +6634,7 @@
         <v>1724962</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>10</v>
       </c>
@@ -4828,7 +6651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>10</v>
       </c>
@@ -4845,7 +6668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>10</v>
       </c>
@@ -4862,7 +6685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>10</v>
       </c>
@@ -4879,7 +6702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>10</v>
       </c>
@@ -4896,7 +6719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +6736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>10</v>
       </c>
@@ -4930,7 +6753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>10</v>
       </c>
@@ -4947,7 +6770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>10</v>
       </c>
@@ -4964,7 +6787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>10</v>
       </c>
@@ -4981,7 +6804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>10</v>
       </c>
@@ -4998,7 +6821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>10</v>
       </c>
@@ -5015,7 +6838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>10</v>
       </c>
@@ -5032,7 +6855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>10</v>
       </c>
@@ -5049,7 +6872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
         <v>10</v>
       </c>
@@ -5066,7 +6889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +6906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
         <v>10</v>
       </c>
@@ -5100,7 +6923,7 @@
         <v>1031915</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>10</v>
       </c>
@@ -5117,7 +6940,7 @@
         <v>2734020</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>10</v>
       </c>
@@ -5134,12 +6957,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -5149,14 +6972,14 @@
         <v>14742848</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>12</v>
       </c>
@@ -5164,15 +6987,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>42</v>
       </c>
@@ -5183,10 +7006,10 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +7036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -5221,44 +7044,44 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43799</v>
       </c>
@@ -5268,7 +7091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5280,7 +7103,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -5294,21 +7117,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5317,7 +7140,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5329,14 +7152,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -5353,7 +7176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -5370,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>10</v>
       </c>
@@ -5387,7 +7210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>10</v>
       </c>
@@ -5404,7 +7227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>10</v>
       </c>
@@ -5421,7 +7244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>10</v>
       </c>
@@ -5439,7 +7262,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
@@ -5456,7 +7279,7 @@
         <v>1950132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>10</v>
       </c>
@@ -5473,7 +7296,7 @@
         <v>1222524</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>10</v>
       </c>
@@ -5490,7 +7313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>10</v>
       </c>
@@ -5507,11 +7330,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5524,9 +7347,9 @@
         <v>1385395</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -5537,7 +7360,7 @@
         <v>2166293</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>10</v>
       </c>
@@ -5554,7 +7377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
@@ -5571,7 +7394,7 @@
         <v>604753</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>10</v>
       </c>
@@ -5588,7 +7411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>10</v>
       </c>
@@ -5605,7 +7428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>10</v>
       </c>
@@ -5622,7 +7445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
@@ -5639,7 +7462,7 @@
         <v>658610</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>10</v>
       </c>
@@ -5656,7 +7479,7 @@
         <v>511220</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>10</v>
       </c>
@@ -5673,7 +7496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
@@ -5690,7 +7513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>10</v>
       </c>
@@ -5707,7 +7530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>10</v>
       </c>
@@ -5724,7 +7547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>10</v>
       </c>
@@ -5741,11 +7564,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -5758,9 +7581,9 @@
         <v>679277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="62"/>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -5772,7 +7595,7 @@
         <v>839549</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>10</v>
       </c>
@@ -5789,7 +7612,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>10</v>
       </c>
@@ -5806,7 +7629,7 @@
         <v>453212</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>10</v>
       </c>
@@ -5823,7 +7646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>10</v>
       </c>
@@ -5840,7 +7663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>10</v>
       </c>
@@ -5857,7 +7680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
         <v>10</v>
       </c>
@@ -5874,7 +7697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>10</v>
       </c>
@@ -5891,7 +7714,7 @@
         <v>521755</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>10</v>
       </c>
@@ -5908,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>10</v>
       </c>
@@ -5925,7 +7748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
         <v>10</v>
       </c>
@@ -5942,7 +7765,7 @@
         <v>519471</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
         <v>10</v>
       </c>
@@ -5959,7 +7782,7 @@
         <v>577433</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
         <v>10</v>
       </c>
@@ -5976,12 +7799,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -5991,14 +7814,14 @@
         <v>12089624</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
@@ -6006,15 +7829,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>42</v>
       </c>
@@ -6025,10 +7848,10 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>14</v>
       </c>
@@ -6059,7 +7882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -6067,44 +7890,44 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43830</v>
       </c>
@@ -6114,7 +7937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6126,7 +7949,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -6140,21 +7963,21 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6163,7 +7986,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6175,14 +7998,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -6199,7 +8022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -6216,7 +8039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +8056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>10</v>
       </c>
@@ -6250,7 +8073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>10</v>
       </c>
@@ -6267,7 +8090,7 @@
         <v>2637675</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>10</v>
       </c>
@@ -6285,7 +8108,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +8125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>10</v>
       </c>
@@ -6319,7 +8142,7 @@
         <v>1859301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +8159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>10</v>
       </c>
@@ -6353,11 +8176,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="61" t="s">
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -6370,9 +8193,9 @@
         <v>3550680</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -6383,7 +8206,7 @@
         <v>969023</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>10</v>
       </c>
@@ -6400,7 +8223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>10</v>
       </c>
@@ -6417,7 +8240,7 @@
         <v>1381640</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>10</v>
       </c>
@@ -6434,7 +8257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>10</v>
       </c>
@@ -6451,7 +8274,7 @@
         <v>505094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>10</v>
       </c>
@@ -6468,7 +8291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
@@ -6485,7 +8308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>10</v>
       </c>
@@ -6502,7 +8325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
@@ -6519,7 +8342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>10</v>
       </c>
@@ -6536,7 +8359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +8376,7 @@
         <v>2238094</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>10</v>
       </c>
@@ -6570,7 +8393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>10</v>
       </c>
@@ -6587,31 +8410,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="63">
         <v>339660</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="63">
         <v>342403</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>10</v>
       </c>
@@ -6628,7 +8451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>10</v>
       </c>
@@ -6645,7 +8468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +8485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>10</v>
       </c>
@@ -6679,7 +8502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>10</v>
       </c>
@@ -6696,7 +8519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +8536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>10</v>
       </c>
@@ -6730,7 +8553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
         <v>10</v>
       </c>
@@ -6747,7 +8570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
         <v>10</v>
       </c>
@@ -6764,7 +8587,7 @@
         <v>1715013</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +8604,7 @@
         <v>880380</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
         <v>10</v>
       </c>
@@ -6798,7 +8621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
         <v>10</v>
       </c>
@@ -6815,12 +8638,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>
@@ -6830,14 +8653,14 @@
         <v>17162009</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
@@ -6845,15 +8668,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>42</v>
       </c>
@@ -6864,10 +8687,10 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>14</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58876D6-50A6-426A-8E49-ED69FD33D676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="6" r:id="rId1"/>
@@ -33,12 +34,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$E$61</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="191">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -611,11 +619,32 @@
   <si>
     <t>01/04/2020 - 07/04/2020</t>
   </si>
+  <si>
+    <t>08/04/2020 - 16/04/2020</t>
+  </si>
+  <si>
+    <t>03/04/2020 - 09/04/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020 - 15/04/2020</t>
+  </si>
+  <si>
+    <t>17/04/2020-24/04/2020</t>
+  </si>
+  <si>
+    <t>25/04/2020-30/04/2020</t>
+  </si>
+  <si>
+    <t>16/04/2020 - 30/04/2020</t>
+  </si>
+  <si>
+    <t>01/04/2020 - 30/04/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -697,7 +726,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,12 +742,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +802,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -902,7 +925,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +968,24 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -953,48 +1004,24 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Мой стиль" xfId="1"/>
+    <cellStyle name="Мой стиль" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1086,6 +1113,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1121,6 +1165,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1296,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1377,20 +1438,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1590,10 +1651,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1607,8 +1668,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
@@ -1818,10 +1879,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1835,8 +1896,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -2069,11 +2130,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2152,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2233,20 +2294,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2446,10 +2507,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -2463,8 +2524,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39" t="s">
         <v>169</v>
       </c>
@@ -2680,10 +2741,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -2697,8 +2758,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -2931,11 +2992,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>9085206</v>
@@ -3014,10 +3075,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -3095,20 +3156,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3308,16 +3369,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="61">
         <v>4421385</v>
       </c>
       <c r="E25" s="31">
@@ -3325,12 +3386,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="31">
         <v>184363</v>
       </c>
@@ -3540,10 +3601,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3557,8 +3618,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -3808,11 +3869,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>15800290</v>
@@ -3892,11 +3953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3973,20 +4037,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4049,655 +4113,645 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="68" t="s">
+      <c r="C17" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="68" t="s">
+      <c r="C18" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>58</v>
+      <c r="C19" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1826304</v>
+      </c>
+      <c r="E19" s="52">
+        <v>1969574</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="68">
-        <v>899364</v>
-      </c>
-      <c r="E20" s="68">
-        <v>920724</v>
+      <c r="C20" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="68">
-        <v>2077060</v>
-      </c>
-      <c r="E21" s="68">
-        <v>2254357</v>
+      <c r="C21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="68">
-        <v>2064615</v>
-      </c>
-      <c r="E22" s="68">
-        <v>2135526</v>
+      <c r="C22" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="52">
+        <v>3038490</v>
+      </c>
+      <c r="E22" s="52">
+        <v>3195399</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="68" t="s">
+      <c r="C23" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="68" t="s">
+      <c r="C24" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="71">
-        <v>4421385</v>
-      </c>
-      <c r="E25" s="72">
-        <v>4362725</v>
+      <c r="C25" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="67">
+        <v>5850225</v>
+      </c>
+      <c r="E25" s="76">
+        <v>6077210</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="72">
-        <v>184363</v>
-      </c>
+      <c r="A26" s="64"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="77"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="68" t="s">
+      <c r="C27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="68">
-        <v>2167956</v>
-      </c>
-      <c r="E28" s="68">
-        <v>2291281</v>
+      <c r="C28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="68">
-        <v>1186902</v>
-      </c>
-      <c r="E29" s="68">
-        <v>1234411</v>
+      <c r="C29" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="52">
+        <v>1021938</v>
+      </c>
+      <c r="E29" s="52">
+        <v>1070887</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="68" t="s">
+      <c r="C30" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="68" t="s">
+      <c r="C31" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>58</v>
+      <c r="C32" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="52">
+        <v>883230</v>
+      </c>
+      <c r="E32" s="52">
+        <v>947285</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="68" t="s">
+      <c r="C33" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="68" t="s">
+      <c r="C34" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="52">
         <v>316540</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="52">
         <v>322237</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="68" t="s">
+      <c r="C36" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="68" t="s">
+      <c r="C37" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="68" t="s">
+      <c r="C38" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="68">
-        <v>937062</v>
-      </c>
-      <c r="E39" s="68">
-        <v>1009377</v>
+      <c r="C39" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>58</v>
-      </c>
+      <c r="A40" s="64"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="68">
-        <v>392460</v>
-      </c>
-      <c r="E41" s="68">
-        <v>441439</v>
+      <c r="C41" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="66" t="s">
+      <c r="A42" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="68" t="s">
+      <c r="C42" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="66" t="s">
+      <c r="A43" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="66" t="s">
+      <c r="C43" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>58</v>
+      <c r="C44" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="52">
+        <v>1038688</v>
+      </c>
+      <c r="E44" s="52">
+        <v>1088892</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="66" t="s">
+      <c r="A45" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>58</v>
+      <c r="C45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="52">
+        <v>807312</v>
+      </c>
+      <c r="E45" s="52">
+        <v>849914</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="66" t="s">
+      <c r="A46" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="68" t="s">
+      <c r="C46" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="68" t="s">
+      <c r="C47" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="66" t="s">
+      <c r="A48" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="68" t="s">
+      <c r="C48" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="28">
-        <v>1514800</v>
-      </c>
-      <c r="E49" s="28">
+      <c r="D49" s="52">
+        <v>1527784</v>
+      </c>
+      <c r="E49" s="52">
         <v>1541221</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="66" t="s">
+      <c r="A50" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="68" t="s">
+      <c r="C50" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="68" t="s">
+      <c r="C51" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="66" t="s">
+      <c r="A52" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="68" t="s">
+      <c r="C52" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="68">
-        <v>618648</v>
-      </c>
-      <c r="E53" s="68">
-        <v>667526</v>
+      <c r="C53" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="66" t="s">
+      <c r="A54" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="68" t="s">
+      <c r="C54" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
-        <v>16596792</v>
+        <v>16310511</v>
       </c>
       <c r="E55" s="28">
         <f>SUM(E17:E54)</f>
-        <v>17365187</v>
+        <v>17062619</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -4746,7 +4800,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
@@ -4755,10 +4809,15 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="6" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="4" man="1"/>
@@ -4770,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4796,17 +4855,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -4856,20 +4915,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5068,16 +5127,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="61">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -5085,12 +5144,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -5436,11 +5495,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -5518,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5602,20 +5661,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5814,10 +5873,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5831,8 +5890,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -6184,11 +6243,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -6262,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:J56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6343,20 +6402,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6556,16 +6615,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="61">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -6573,12 +6632,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -6958,11 +7017,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -7037,7 +7096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:J60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7118,20 +7177,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -7331,10 +7390,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -7348,8 +7407,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -7565,10 +7624,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -7582,8 +7641,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -7800,11 +7859,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -7883,7 +7942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:J60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7964,20 +8023,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -8177,10 +8236,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -8194,8 +8253,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -8411,28 +8470,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="73">
         <v>339660</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="73">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
@@ -8639,11 +8698,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -5,32 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58876D6-50A6-426A-8E49-ED69FD33D676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66FBBC-714C-48D0-930F-06CB8E50F9F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="6" r:id="rId1"/>
     <sheet name="Февраль" sheetId="7" r:id="rId2"/>
     <sheet name="Март" sheetId="8" r:id="rId3"/>
     <sheet name="Апрель" sheetId="9" r:id="rId4"/>
-    <sheet name="Август" sheetId="1" r:id="rId5"/>
-    <sheet name="Сентябрь" sheetId="2" r:id="rId6"/>
-    <sheet name="Октябрь" sheetId="3" r:id="rId7"/>
-    <sheet name="Ноябрь" sheetId="4" r:id="rId8"/>
-    <sheet name="Декабрь" sheetId="5" r:id="rId9"/>
+    <sheet name="Май" sheetId="10" r:id="rId5"/>
+    <sheet name="Август" sheetId="1" r:id="rId6"/>
+    <sheet name="Сентябрь" sheetId="2" r:id="rId7"/>
+    <sheet name="Октябрь" sheetId="3" r:id="rId8"/>
+    <sheet name="Ноябрь" sheetId="4" r:id="rId9"/>
+    <sheet name="Декабрь" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Август!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$E$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Май!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$E$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Ноябрь!$A$1:$E$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Октябрь!$A$1:$E$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Сентябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Ноябрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Октябрь!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Сентябрь!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$E$61</definedName>
   </definedNames>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="203">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -639,6 +641,42 @@
   </si>
   <si>
     <t>01/04/2020 - 30/04/2020</t>
+  </si>
+  <si>
+    <t>01/05/2020-01/05/2020</t>
+  </si>
+  <si>
+    <t>02/05/2020 - 10/05/2020</t>
+  </si>
+  <si>
+    <t>11/05/2020 - 16/05/2020</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  0.45 л        тип III-2-82-450-1</t>
+  </si>
+  <si>
+    <t>17/05/2020 - 20/05/2020</t>
+  </si>
+  <si>
+    <t>01/05/2020 - 04/05/2020</t>
+  </si>
+  <si>
+    <t>01/05/2020 - 03/05/2020</t>
+  </si>
+  <si>
+    <t>18/05/2020 - 24/05/2020</t>
+  </si>
+  <si>
+    <t>21/05/2020 - 26/05/2020</t>
+  </si>
+  <si>
+    <t>29/05/2020 - 31/05/2020</t>
+  </si>
+  <si>
+    <t>14/05/2020 - 31/05/2020</t>
+  </si>
+  <si>
+    <t>27/05/2020 - 31/05/2020</t>
   </si>
 </sst>
 </file>
@@ -802,7 +840,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -941,6 +979,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,39 +1027,46 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Мой стиль" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1438,20 +1486,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1651,10 +1699,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1668,8 +1716,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
@@ -1879,10 +1927,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1896,8 +1944,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -2130,11 +2178,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2198,6 +2246,848 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:J60"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43830</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="28">
+        <v>2510256</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2637675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1017372</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1082706</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1804915</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1859301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="32">
+        <v>3417786</v>
+      </c>
+      <c r="E25" s="31">
+        <v>3550680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="41">
+        <v>934344</v>
+      </c>
+      <c r="E26" s="31">
+        <v>969023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1278900</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1381640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="28">
+        <v>463410</v>
+      </c>
+      <c r="E30" s="28">
+        <v>505094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="28">
+        <v>2128893</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2238094</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="77">
+        <v>339660</v>
+      </c>
+      <c r="E39" s="77">
+        <v>342403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1587294</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1715013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="28">
+        <v>829632</v>
+      </c>
+      <c r="E50" s="28">
+        <v>880380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="28">
+        <f>SUM(D17:D52)</f>
+        <v>16312462</v>
+      </c>
+      <c r="E53" s="28">
+        <f>SUM(E17:E52)</f>
+        <v>17162009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2294,20 +3184,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2507,10 +3397,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -2524,8 +3414,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="39" t="s">
         <v>169</v>
       </c>
@@ -2741,10 +3631,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -2758,8 +3648,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -2992,11 +3882,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>9085206</v>
@@ -3156,20 +4046,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3369,16 +4259,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="62">
         <v>4421385</v>
       </c>
       <c r="E25" s="31">
@@ -3386,12 +4276,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="31">
         <v>184363</v>
       </c>
@@ -3601,10 +4491,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3618,8 +4508,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -3869,11 +4759,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>15800290</v>
@@ -3959,8 +4849,8 @@
   </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:E62"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4037,20 +4927,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4250,28 +5140,28 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="68">
         <v>5850225</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>6077210</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="77"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
@@ -4478,28 +5368,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="79" t="s">
+      <c r="C39" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="74" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
@@ -4740,11 +5630,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>16310511</v>
@@ -4829,6 +5719,889 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333BCC7D-305F-47B6-B910-8A7C6A789F82}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43982</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1081836</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1120712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1019392</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1071619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1553772</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1615753</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="28">
+        <v>628474</v>
+      </c>
+      <c r="E22" s="28">
+        <v>644602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="32">
+        <v>787320</v>
+      </c>
+      <c r="E25" s="31">
+        <v>817243</v>
+      </c>
+      <c r="F25" s="83">
+        <f>D25+D26</f>
+        <v>4333905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="32">
+        <v>3546585</v>
+      </c>
+      <c r="E26" s="82">
+        <v>3673418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="28">
+        <v>851580</v>
+      </c>
+      <c r="E30" s="28">
+        <v>891006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="77">
+        <v>957042</v>
+      </c>
+      <c r="E39" s="77">
+        <v>1017446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="28">
+        <v>431568</v>
+      </c>
+      <c r="E43" s="28">
+        <v>452441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="28">
+        <v>132864</v>
+      </c>
+      <c r="E45" s="28">
+        <v>141152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="28">
+        <v>694260</v>
+      </c>
+      <c r="E52" s="28">
+        <v>745427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="28">
+        <f>SUM(D17:D54)</f>
+        <v>11684693</v>
+      </c>
+      <c r="E55" s="28">
+        <f>SUM(E17:E54)</f>
+        <v>12190819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4855,17 +6628,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -4915,20 +6688,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5127,16 +6900,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="62">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -5144,12 +6917,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -5495,11 +7268,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -5576,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5661,20 +7434,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5873,10 +7646,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -5890,8 +7663,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -6243,11 +8016,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -6320,7 +8093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:J56"/>
   <sheetViews>
@@ -6402,20 +8175,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6615,16 +8388,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="62">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -6632,12 +8405,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -7017,11 +8790,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -7095,7 +8868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -7177,20 +8950,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -7390,10 +9163,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -7407,8 +9180,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -7624,10 +9397,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -7641,8 +9414,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -7859,11 +9632,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -7939,846 +9712,4 @@
     <brk id="5" max="34" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:J60"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D5" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>43830</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="28">
-        <v>2510256</v>
-      </c>
-      <c r="E19" s="28">
-        <v>2637675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1017372</v>
-      </c>
-      <c r="E20" s="28">
-        <v>1082706</v>
-      </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1804915</v>
-      </c>
-      <c r="E22" s="26">
-        <v>1859301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="32">
-        <v>3417786</v>
-      </c>
-      <c r="E25" s="31">
-        <v>3550680</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="41">
-        <v>934344</v>
-      </c>
-      <c r="E26" s="31">
-        <v>969023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="28">
-        <v>1278900</v>
-      </c>
-      <c r="E28" s="28">
-        <v>1381640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="28">
-        <v>463410</v>
-      </c>
-      <c r="E30" s="28">
-        <v>505094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="28">
-        <v>2128893</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2238094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="73">
-        <v>339660</v>
-      </c>
-      <c r="E39" s="73">
-        <v>342403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="28">
-        <v>1587294</v>
-      </c>
-      <c r="E49" s="28">
-        <v>1715013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="28">
-        <v>829632</v>
-      </c>
-      <c r="E50" s="28">
-        <v>880380</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="28">
-        <f>SUM(D17:D52)</f>
-        <v>16312462</v>
-      </c>
-      <c r="E53" s="28">
-        <f>SUM(E17:E52)</f>
-        <v>17162009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="4" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="34" man="1"/>
-  </colBreaks>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66FBBC-714C-48D0-930F-06CB8E50F9F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268D7B0-6258-4852-87E1-5F2ECAD828A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="6" r:id="rId1"/>
@@ -18,21 +18,23 @@
     <sheet name="Март" sheetId="8" r:id="rId3"/>
     <sheet name="Апрель" sheetId="9" r:id="rId4"/>
     <sheet name="Май" sheetId="10" r:id="rId5"/>
-    <sheet name="Август" sheetId="1" r:id="rId6"/>
-    <sheet name="Сентябрь" sheetId="2" r:id="rId7"/>
-    <sheet name="Октябрь" sheetId="3" r:id="rId8"/>
-    <sheet name="Ноябрь" sheetId="4" r:id="rId9"/>
-    <sheet name="Декабрь" sheetId="5" r:id="rId10"/>
+    <sheet name="Июнь" sheetId="11" r:id="rId6"/>
+    <sheet name="Август" sheetId="1" r:id="rId7"/>
+    <sheet name="Сентябрь" sheetId="2" r:id="rId8"/>
+    <sheet name="Октябрь" sheetId="3" r:id="rId9"/>
+    <sheet name="Ноябрь" sheetId="4" r:id="rId10"/>
+    <sheet name="Декабрь" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Август!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$E$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Декабрь!$A$1:$E$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Июнь!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Май!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$E$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Ноябрь!$A$1:$E$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Октябрь!$A$1:$E$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Сентябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Ноябрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Октябрь!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Сентябрь!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Февраль!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Январь!$A$1:$E$61</definedName>
   </definedNames>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="208">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -677,6 +679,21 @@
   </si>
   <si>
     <t>27/05/2020 - 31/05/2020</t>
+  </si>
+  <si>
+    <t>01/06/2020 - 06/06/2020</t>
+  </si>
+  <si>
+    <t>01/05/2020 - 01/06/2020</t>
+  </si>
+  <si>
+    <t>05/06/2020 - 30/06/2020</t>
+  </si>
+  <si>
+    <t>02/06/2020 - 04/06/2020</t>
+  </si>
+  <si>
+    <t>04/06/2020 - 10/06/2020</t>
   </si>
 </sst>
 </file>
@@ -764,7 +781,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +863,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -982,6 +1005,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,10 +1093,39 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Мой стиль" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1486,20 +1545,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1699,10 +1758,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1716,8 +1775,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="39"/>
       <c r="D26" s="43"/>
       <c r="E26" s="31"/>
@@ -1927,10 +1986,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -1944,8 +2003,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -2178,11 +2237,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>13295958</v>
@@ -2261,6 +2320,852 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:J60"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1791290</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1950132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1132292</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1222524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1337715</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1385395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="38">
+        <v>2074005</v>
+      </c>
+      <c r="E26" s="31">
+        <v>2166293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="28">
+        <v>559188</v>
+      </c>
+      <c r="E28" s="28">
+        <v>604753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="28">
+        <v>614190</v>
+      </c>
+      <c r="E32" s="28">
+        <v>658610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="28">
+        <v>485760</v>
+      </c>
+      <c r="E33" s="28">
+        <v>511220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="28">
+        <v>616712</v>
+      </c>
+      <c r="E39" s="28">
+        <v>679277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="28">
+        <f>787212+14656</f>
+        <v>801868</v>
+      </c>
+      <c r="E40" s="28">
+        <v>839549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="28">
+        <v>426816</v>
+      </c>
+      <c r="E42" s="28">
+        <v>453212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="28">
+        <v>468000</v>
+      </c>
+      <c r="E47" s="28">
+        <v>521755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="28">
+        <v>466668</v>
+      </c>
+      <c r="E50" s="28">
+        <v>519471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="28">
+        <v>491400</v>
+      </c>
+      <c r="E51" s="28">
+        <v>577433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="28">
+        <f>SUM(D17:D52)</f>
+        <v>11265904</v>
+      </c>
+      <c r="E53" s="28">
+        <f>SUM(E17:E52)</f>
+        <v>12089624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:J60"/>
   <sheetViews>
@@ -2342,20 +3247,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2555,10 +3460,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2572,8 +3477,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="39" t="s">
         <v>142</v>
       </c>
@@ -2789,28 +3694,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="80">
         <v>339660</v>
       </c>
-      <c r="E39" s="77">
+      <c r="E39" s="80">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
@@ -3017,11 +3922,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>16312462</v>
@@ -3184,20 +4089,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3397,10 +4302,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -3414,8 +4319,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="39" t="s">
         <v>169</v>
       </c>
@@ -3631,10 +4536,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3648,8 +4553,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -3882,11 +4787,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="28">
         <f>SUM(D17:D53)</f>
         <v>9085206</v>
@@ -4046,20 +4951,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4259,16 +5164,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="65">
         <v>4421385</v>
       </c>
       <c r="E25" s="31">
@@ -4276,12 +5181,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="31">
         <v>184363</v>
       </c>
@@ -4491,10 +5396,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -4508,8 +5413,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -4759,11 +5664,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>15800290</v>
@@ -4927,20 +5832,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5140,28 +6045,28 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="71">
         <v>5850225</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="74">
         <v>6077210</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
@@ -5368,28 +6273,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="74" t="s">
+      <c r="C39" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
@@ -5630,11 +6535,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>16310511</v>
@@ -5725,7 +6630,7 @@
   </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5803,20 +6708,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6016,10 +6921,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -6031,21 +6936,21 @@
       <c r="E25" s="31">
         <v>817243</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="56">
         <f>D25+D26</f>
         <v>4333905</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="53" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="32">
         <v>3546585</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="55">
         <v>3673418</v>
       </c>
     </row>
@@ -6254,28 +7159,28 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="80">
         <v>957042</v>
       </c>
-      <c r="E39" s="77">
+      <c r="E39" s="80">
         <v>1017446</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
@@ -6516,11 +7421,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="28">
         <f>SUM(D17:D54)</f>
         <v>11684693</v>
@@ -6602,6 +7507,885 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711ED7F-7195-45E3-B967-4DCCDDA2DC77}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>44012</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="88">
+        <v>1081836</v>
+      </c>
+      <c r="E18" s="88">
+        <v>1120712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1706896</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1772456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="88">
+        <v>1553772</v>
+      </c>
+      <c r="E20" s="88">
+        <v>1615753</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="28">
+        <v>745790</v>
+      </c>
+      <c r="E21" s="28">
+        <v>820325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="88">
+        <v>628474</v>
+      </c>
+      <c r="E22" s="88">
+        <v>644602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="32">
+        <v>204120</v>
+      </c>
+      <c r="E25" s="31">
+        <v>205981</v>
+      </c>
+      <c r="F25" s="56">
+        <f>D25+D26</f>
+        <v>204120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1033704</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1070878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="88">
+        <v>851580</v>
+      </c>
+      <c r="E30" s="88">
+        <v>891006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="94">
+        <v>957042</v>
+      </c>
+      <c r="E39" s="94">
+        <v>1017446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="91"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="88">
+        <v>431568</v>
+      </c>
+      <c r="E43" s="88">
+        <v>452441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="88">
+        <v>132864</v>
+      </c>
+      <c r="E45" s="88">
+        <v>141152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="88">
+        <v>694260</v>
+      </c>
+      <c r="E52" s="88">
+        <v>745427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="28">
+        <f>SUM(D17:D54)</f>
+        <v>10021906</v>
+      </c>
+      <c r="E55" s="28">
+        <f>SUM(E17:E54)</f>
+        <v>10498179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6628,17 +8412,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -6688,20 +8472,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6900,16 +8684,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="65">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -6917,12 +8701,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -7268,11 +9052,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -7349,7 +9133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7434,20 +9218,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -7646,10 +9430,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -7663,8 +9447,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -8016,11 +9800,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -8093,7 +9877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:J56"/>
   <sheetViews>
@@ -8175,20 +9959,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -8388,16 +10172,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="65">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -8405,12 +10189,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -8790,11 +10574,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -8866,850 +10650,4 @@
     <brk id="5" max="34" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:J60"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="D5" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>43799</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="28">
-        <v>1791290</v>
-      </c>
-      <c r="E21" s="28">
-        <v>1950132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1132292</v>
-      </c>
-      <c r="E22" s="26">
-        <v>1222524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="32">
-        <v>1337715</v>
-      </c>
-      <c r="E25" s="31">
-        <v>1385395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="38">
-        <v>2074005</v>
-      </c>
-      <c r="E26" s="31">
-        <v>2166293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="28">
-        <v>559188</v>
-      </c>
-      <c r="E28" s="28">
-        <v>604753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="28">
-        <v>614190</v>
-      </c>
-      <c r="E32" s="28">
-        <v>658610</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="28">
-        <v>485760</v>
-      </c>
-      <c r="E33" s="28">
-        <v>511220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="28">
-        <v>616712</v>
-      </c>
-      <c r="E39" s="28">
-        <v>679277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="28">
-        <f>787212+14656</f>
-        <v>801868</v>
-      </c>
-      <c r="E40" s="28">
-        <v>839549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="28">
-        <v>426816</v>
-      </c>
-      <c r="E42" s="28">
-        <v>453212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="28">
-        <v>468000</v>
-      </c>
-      <c r="E47" s="28">
-        <v>521755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="28">
-        <v>466668</v>
-      </c>
-      <c r="E50" s="28">
-        <v>519471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="28">
-        <v>491400</v>
-      </c>
-      <c r="E51" s="28">
-        <v>577433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="28">
-        <f>SUM(D17:D52)</f>
-        <v>11265904</v>
-      </c>
-      <c r="E53" s="28">
-        <f>SUM(E17:E52)</f>
-        <v>12089624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="4" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="34" man="1"/>
-  </colBreaks>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2020 год.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268D7B0-6258-4852-87E1-5F2ECAD828A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5DFC6-3CE5-4D41-9DF2-07BE2CD73303}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Август!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Декабрь!$A$1:$E$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Июнь!$A$1:$E$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Июнь!$A$1:$E$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Май!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$E$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Ноябрь!$A$1:$E$61</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="222">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -681,12 +681,6 @@
     <t>27/05/2020 - 31/05/2020</t>
   </si>
   <si>
-    <t>01/06/2020 - 06/06/2020</t>
-  </si>
-  <si>
-    <t>01/05/2020 - 01/06/2020</t>
-  </si>
-  <si>
     <t>05/06/2020 - 30/06/2020</t>
   </si>
   <si>
@@ -694,6 +688,54 @@
   </si>
   <si>
     <t>04/06/2020 - 10/06/2020</t>
+  </si>
+  <si>
+    <t>01/06/2020 - 08/06/2020</t>
+  </si>
+  <si>
+    <t>Формокомплект банки 1 л.             тип III-2-82-1000-3</t>
+  </si>
+  <si>
+    <t>09/06/2020 - 14/06/2020</t>
+  </si>
+  <si>
+    <t>01/06/2020 - 01/06/2020</t>
+  </si>
+  <si>
+    <t>15/06/2020 - 23/06/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020 - 12/06/2020</t>
+  </si>
+  <si>
+    <t>16/06/2020 - 18/06/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020 - 22/06/2020</t>
+  </si>
+  <si>
+    <t>24/06/2020 - 29/06/2020</t>
+  </si>
+  <si>
+    <t>30/06/2020 - 30/06/2020</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0,5 л. Ice Cube тип XXI-КПМ -26-500-10</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0,5 л. Ice Cube тип XXI-В -28-1-500-10</t>
+  </si>
+  <si>
+    <t>26/06/2020 - 28/06/2020</t>
+  </si>
+  <si>
+    <t>29/06/2020 - 30/06/2020</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>Зам. дирекотора</t>
   </si>
 </sst>
 </file>
@@ -781,7 +823,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,12 +839,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +899,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1002,13 +1038,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,39 +1127,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1706,7 +1709,7 @@
         <v>1685448</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>1685369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>10</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
         <v>10</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>2254357</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
         <v>10</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>2135526</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>10</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>3195399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
@@ -6630,8 +6633,8 @@
   </sheetPr>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6869,7 +6872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>10</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>644602</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6939,7 @@
       <c r="E25" s="31">
         <v>817243</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="55">
         <f>D25+D26</f>
         <v>4333905</v>
       </c>
@@ -6950,7 +6953,7 @@
       <c r="D26" s="32">
         <v>3546585</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="54">
         <v>3673418</v>
       </c>
     </row>
@@ -7508,13 +7511,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711ED7F-7195-45E3-B967-4DCCDDA2DC77}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J62"/>
+  <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7523,7 +7523,7 @@
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="D3" s="33" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -7666,49 +7666,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="86" t="s">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="86" t="s">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="88">
-        <v>1081836</v>
-      </c>
-      <c r="E18" s="88">
-        <v>1120712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>194</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D19" s="28">
         <v>1706896</v>
@@ -7716,672 +7716,714 @@
       <c r="E19" s="28">
         <v>1772456</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="86" t="s">
+      <c r="F19" s="55">
+        <f>D19+D20</f>
+        <v>1901200</v>
+      </c>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="28">
+        <v>194304</v>
+      </c>
+      <c r="E20" s="28">
+        <v>219298</v>
+      </c>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="88">
-        <v>1553772</v>
-      </c>
-      <c r="E20" s="88">
-        <v>1615753</v>
-      </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1054920</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1095588</v>
+      </c>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="C22" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="28">
         <v>745790</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E22" s="28">
         <v>820325</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="86" t="s">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="88">
-        <v>628474</v>
-      </c>
-      <c r="E22" s="88">
-        <v>644602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="86" t="s">
+      <c r="C23" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1784139</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1877005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="86" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="63" t="s">
+      <c r="C25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="32">
+      <c r="C26" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="32">
         <v>204120</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E26" s="31">
         <v>205981</v>
       </c>
-      <c r="F25" s="56">
-        <f>D25+D26</f>
-        <v>204120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="54" t="s">
+      <c r="F26" s="55">
+        <f>D26+D27</f>
+        <v>5314410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="32">
+        <v>5110290</v>
+      </c>
+      <c r="E27" s="54">
+        <v>5309982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="28" t="s">
+      <c r="D29" s="28">
+        <v>1033704</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1070878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="28">
+        <v>266112</v>
+      </c>
+      <c r="E34" s="28">
+        <v>320803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="28">
+        <v>593978</v>
+      </c>
+      <c r="E36" s="28">
+        <v>623589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="28">
-        <v>1033704</v>
-      </c>
-      <c r="E28" s="28">
-        <v>1070878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="88">
-        <v>851580</v>
-      </c>
-      <c r="E30" s="88">
-        <v>891006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="90" t="s">
+      <c r="C39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="94">
-        <v>957042</v>
-      </c>
-      <c r="E39" s="94">
-        <v>1017446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="86" t="s">
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="21" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="88" t="s">
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="86" t="s">
+      <c r="A43" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="88">
-        <v>431568</v>
-      </c>
-      <c r="E43" s="88">
-        <v>452441</v>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="48" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="86" t="s">
+      <c r="A44" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="88" t="s">
+      <c r="C44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="86" t="s">
+      <c r="A45" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="88">
-        <v>132864</v>
-      </c>
-      <c r="E45" s="88">
-        <v>141152</v>
+      <c r="C45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="88" t="s">
-        <v>58</v>
+      <c r="C46" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1360128</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1514164</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="86" t="s">
+      <c r="A47" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="88" t="s">
-        <v>58</v>
+      <c r="C47" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="28">
+        <v>382590</v>
+      </c>
+      <c r="E47" s="28">
+        <v>413025</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="86" t="s">
+      <c r="A48" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="88" t="s">
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="86" t="s">
+      <c r="A49" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="88" t="s">
+      <c r="C49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="86" t="s">
+      <c r="A50" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="88" t="s">
+      <c r="C50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="86" t="s">
+      <c r="A51" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="88" t="s">
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="86" t="s">
+      <c r="A52" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="88">
-        <v>694260</v>
-      </c>
-      <c r="E52" s="88">
-        <v>745427</v>
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="86" t="s">
+      <c r="A53" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="87" t="s">
+      <c r="C53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="86" t="s">
+      <c r="A54" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="28">
+        <v>435936</v>
+      </c>
+      <c r="E54" s="28">
+        <v>461100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="28">
+        <v>297312</v>
+      </c>
+      <c r="E55" s="28">
+        <v>312883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+      <c r="C56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="28">
-        <f>SUM(D17:D54)</f>
-        <v>10021906</v>
-      </c>
-      <c r="E55" s="28">
-        <f>SUM(E17:E54)</f>
-        <v>10498179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="28">
+        <f>SUM(D17:D56)</f>
+        <v>15170219</v>
+      </c>
+      <c r="E57" s="28">
+        <f>SUM(E17:E56)</f>
+        <v>16017077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60" s="13" t="s">
+    <row r="62" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A55:C55"/>
+  <mergeCells count="9">
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="6" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="4" man="1"/>
+    <brk id="33" max="4" man="1"/>
   </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="34" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
@@ -8547,7 +8589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
@@ -8598,7 +8640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -8632,7 +8674,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -8649,7 +8691,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -8666,7 +8708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -8745,7 +8787,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -8813,7 +8855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -9125,7 +9167,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
